--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="22260" windowHeight="12645" tabRatio="881" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="22260" windowHeight="12645" tabRatio="881" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -28062,7 +28062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -30672,14 +30672,14 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="53" bestFit="1" customWidth="1"/>
